--- a/biology/Histoire de la zoologie et de la botanique/Jean-Louis_Amiet/Jean-Louis_Amiet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Louis_Amiet/Jean-Louis_Amiet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Louis Amiet , né le 14 juin 1936[1] à Marquise (Pas-de-Calais) et mort le 6 juin 2023 à Nyons[2], est un herpétologiste et entomologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Louis Amiet , né le 14 juin 1936 à Marquise (Pas-de-Calais) et mort le 6 juin 2023 à Nyons, est un herpétologiste et entomologiste français.
 Il est diplômé de l'Université Lille I en 1963, il fut professeur à l'université de Yaoundé au Cameroun.
 C'est un spécialiste, notamment, des anoures africains.
 </t>
@@ -513,14 +525,16 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amietophrynus  Frost, Grant, Faivovich, Bain, Haas, Haddad, de Sá, Channing, Wilkinson, Donnellan, Raxworthy, Campbell, Blotto, Moler, Drewes, Nussbaum, Lynch, Green &amp; Wheeler, 2006
 Xenopus amieti Kobel, du Pasquier, Fischberg &amp; Gloor, 1980
 Amietia Dubois, 1987
 Amietia amieti Laurent, 1976
 Afrothismia amietii Cheek, 2007
-Leptosiaphos amieti Perret, 1973[3]</t>
+Leptosiaphos amieti Perret, 1973</t>
         </is>
       </c>
     </row>
@@ -548,7 +562,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alexteroon hypsiphonus Amiet, 2000
